--- a/report/data_to_plot.xlsx
+++ b/report/data_to_plot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Training accuracy - Top 1</t>
   </si>
@@ -376,15 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -397,17 +397,20 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -420,8 +423,20 @@
       <c r="G2">
         <v>6.42</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O2">
+        <v>42.29</v>
+      </c>
+      <c r="R2">
+        <v>72.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -434,8 +449,20 @@
       <c r="G3">
         <v>41.06</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="O3">
+        <v>42.43</v>
+      </c>
+      <c r="R3">
+        <v>70.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -448,8 +475,20 @@
       <c r="G4">
         <v>51.55</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>1.95</v>
+      </c>
+      <c r="O4">
+        <v>53.23</v>
+      </c>
+      <c r="R4">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -462,13 +501,227 @@
       <c r="G5">
         <v>55.89</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O5">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="R5">
+        <v>91.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>33</v>
       </c>
       <c r="B6">
         <v>2.15</v>
+      </c>
+      <c r="D6">
+        <v>51.51</v>
+      </c>
+      <c r="G6">
+        <v>75.81</v>
+      </c>
+      <c r="L6">
+        <v>39</v>
+      </c>
+      <c r="M6">
+        <v>1.33</v>
+      </c>
+      <c r="O6">
+        <v>67.180000000000007</v>
+      </c>
+      <c r="R6">
+        <v>88.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>2.1</v>
+      </c>
+      <c r="D7">
+        <v>52.15</v>
+      </c>
+      <c r="G7">
+        <v>76.239999999999995</v>
+      </c>
+      <c r="L7">
+        <v>49</v>
+      </c>
+      <c r="M7">
+        <v>1.27</v>
+      </c>
+      <c r="O7">
+        <v>68.59</v>
+      </c>
+      <c r="R7">
+        <v>88.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>1.78</v>
+      </c>
+      <c r="D8">
+        <v>58.58</v>
+      </c>
+      <c r="G8">
+        <v>80.98</v>
+      </c>
+      <c r="L8">
+        <v>51</v>
+      </c>
+      <c r="M8">
+        <v>1.26</v>
+      </c>
+      <c r="O8">
+        <v>68.73</v>
+      </c>
+      <c r="R8">
+        <v>88.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>1.78</v>
+      </c>
+      <c r="D9">
+        <v>58.65</v>
+      </c>
+      <c r="G9">
+        <v>80.930000000000007</v>
+      </c>
+      <c r="L9">
+        <v>55</v>
+      </c>
+      <c r="M9">
+        <v>1.25</v>
+      </c>
+      <c r="O9">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="R9">
+        <v>89.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>1.68</v>
+      </c>
+      <c r="D10">
+        <v>60.68</v>
+      </c>
+      <c r="G10">
+        <v>82.33</v>
+      </c>
+      <c r="L10">
+        <v>56</v>
+      </c>
+      <c r="M10">
+        <v>1.25</v>
+      </c>
+      <c r="O10">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="R10">
+        <v>89.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>1.66</v>
+      </c>
+      <c r="D11">
+        <v>60.97</v>
+      </c>
+      <c r="G11">
+        <v>82.49</v>
+      </c>
+      <c r="L11">
+        <v>57</v>
+      </c>
+      <c r="M11">
+        <v>1.25</v>
+      </c>
+      <c r="O11">
+        <v>69.12</v>
+      </c>
+      <c r="R11">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>1.64</v>
+      </c>
+      <c r="D12">
+        <v>61.5</v>
+      </c>
+      <c r="G12">
+        <v>82.87</v>
+      </c>
+      <c r="L12">
+        <v>58</v>
+      </c>
+      <c r="M12">
+        <v>1.24</v>
+      </c>
+      <c r="O12">
+        <v>69.290000000000006</v>
+      </c>
+      <c r="R12">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>1.63</v>
+      </c>
+      <c r="D13">
+        <v>61.62</v>
+      </c>
+      <c r="G13">
+        <v>82.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>1.63</v>
+      </c>
+      <c r="D14">
+        <v>61.69</v>
+      </c>
+      <c r="G14">
+        <v>83.03</v>
       </c>
     </row>
   </sheetData>
